--- a/Presentations/Leipzig_Dec15/Polybius_consolidated_files.xlsx
+++ b/Presentations/Leipzig_Dec15/Polybius_consolidated_files.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgorm\Documents\syntacto_stylistics\Leipzig_Dec15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgorm\Documents\syntacto_stylistics\Presentations\Leipzig_Dec15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="zscores_Oct11" sheetId="1" r:id="rId1"/>
@@ -2570,7 +2570,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="CI4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CP2" sqref="CP2"/>
+      <selection pane="bottomRight" activeCell="CI24" sqref="CI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62471,7 +62471,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63664,13 +63664,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GS26"/>
+  <dimension ref="A1:GS28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75248,6 +75248,12 @@
       <c r="A26">
         <f>AVERAGE(B24:Y24)</f>
         <v>1.0235324674247275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:201" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(C24:AA24)</f>
+        <v>0.87861247854434166</v>
       </c>
     </row>
   </sheetData>
@@ -75261,13 +75267,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW26"/>
+  <dimension ref="A1:CW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81253,6 +81259,12 @@
       <c r="A26">
         <f>AVERAGE(B24:Y24)</f>
         <v>1.119352257388923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(B24:Z24)</f>
+        <v>1.1046871920255095</v>
       </c>
     </row>
   </sheetData>
@@ -81265,13 +81277,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW26"/>
+  <dimension ref="A1:CW28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AW4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="BJ28" sqref="BJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87257,6 +87269,12 @@
       <c r="A26">
         <f xml:space="preserve"> AVERAGE(B24:Y24)</f>
         <v>1.4250221218252648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGE(B24:Z24)</f>
+        <v>1.3974425596717088</v>
       </c>
     </row>
   </sheetData>
